--- a/EducationalScheduler/target/classes/classes.xlsx
+++ b/EducationalScheduler/target/classes/classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celine/Desktop/Github/Scheduler/EducationalScheduler/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C4FBD8-E844-6743-B648-D2EC2D36167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06AFF9E-DE5C-334E-AC1A-52FCD65F6518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="740" windowWidth="28040" windowHeight="16920" xr2:uid="{6A61D96C-CC0B-AD41-9DE3-8DE4ADA7A7CB}"/>
+    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="16920" xr2:uid="{6A61D96C-CC0B-AD41-9DE3-8DE4ADA7A7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Class Name</t>
   </si>
@@ -71,36 +71,15 @@
     <t>A-123</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>Kevin Smith</t>
   </si>
   <si>
     <t>A-231</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
-    <t>12346</t>
-  </si>
-  <si>
-    <t>12347</t>
-  </si>
-  <si>
-    <t>12348</t>
-  </si>
-  <si>
-    <t>12349</t>
-  </si>
-  <si>
     <t>Jennifer Jones</t>
   </si>
   <si>
@@ -153,24 +132,6 @@
   </si>
   <si>
     <t>18:00-19:00</t>
-  </si>
-  <si>
-    <t>12350</t>
-  </si>
-  <si>
-    <t>12351</t>
-  </si>
-  <si>
-    <t>12352</t>
-  </si>
-  <si>
-    <t>12353</t>
-  </si>
-  <si>
-    <t>12354</t>
-  </si>
-  <si>
-    <t>12355</t>
   </si>
   <si>
     <t>Vincent Ku</t>
@@ -256,8 +217,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,8 +571,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="2">
+        <v>12345</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -619,208 +580,208 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12346</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12347</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12348</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12349</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12350</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
+      <c r="F7" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12351</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12352</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12353</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12354</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12355</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
+      <c r="F12" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
